--- a/Hướng dẫn.xlsx
+++ b/Hướng dẫn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\memo\nodejs\auto checkin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\memo\nodejs\nodejs-playwright\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE90C4D2-6CDF-49C8-9DB1-742D131C37C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C388B93-08D2-41F9-8E57-ED900FA9F235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cài đặt môi trường" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cài đặt nodejs (nếu chưa có)</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Nó chạy mỗi ngày vào lúc 8h sáng. Lưu ý chỉ tắt màn hình, tắt chế độ ngủ tự động của window và phải giữ lại của sổ cmd</t>
+  </si>
+  <si>
+    <t>Cấu hình</t>
+  </si>
+  <si>
+    <t>copy file .env.example thành .env. Sửa tài khoản và mật khẩu vào file .env</t>
   </si>
 </sst>
 </file>
@@ -110,10 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -231,13 +236,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>258657</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>77035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -275,13 +280,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>258657</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>77035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -307,6 +312,50 @@
         <a:xfrm>
           <a:off x="609600" y="8191500"/>
           <a:ext cx="10621857" cy="5982535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>55924</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4AEE7BD-0B9B-3786-0985-7E2C4136D9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="9809524" cy="6171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,7 +652,7 @@
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -616,7 +665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B42"/>
+  <dimension ref="B2:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -624,36 +673,46 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>9</v>
       </c>
     </row>
